--- a/Data/EC/NIT-9013389179.xlsx
+++ b/Data/EC/NIT-9013389179.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E854B55-08F2-4327-898D-FD6C60F9EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB83DB5-2110-4BDC-B2E9-B73A50CF5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{680C6CF2-E585-4E9A-843E-827824422E4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23494C40-91A7-4BC2-951C-FF5764081262}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,76 +65,76 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1238338053</t>
+  </si>
+  <si>
+    <t>DANIEL EDUARDO BERRIO BELTRAN</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1050969229</t>
+  </si>
+  <si>
+    <t>VICTOR VICTOR RAMOS JIMENEZ</t>
+  </si>
+  <si>
     <t>1047373924</t>
   </si>
   <si>
     <t>ALEJANDRO FRANCO BARRIOS</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1238338053</t>
-  </si>
-  <si>
-    <t>DANIEL EDUARDO BERRIO BELTRAN</t>
-  </si>
-  <si>
-    <t>1050969229</t>
-  </si>
-  <si>
-    <t>VICTOR VICTOR RAMOS JIMENEZ</t>
-  </si>
-  <si>
     <t>1143387301</t>
   </si>
   <si>
     <t>MIGUEL GONZALEZ</t>
   </si>
   <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7D53DC-D3CE-2507-DF61-8828CAE7E467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9315A3EC-E231-A081-3BE2-F0F162AFA3BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2DF447-8A85-403B-9A27-1C0F93E0945A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8250A53-2B67-42B3-BE5F-2FD28EFEE481}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1077,10 +1077,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>177333</v>
+        <v>121333</v>
       </c>
       <c r="G16" s="18">
-        <v>13300000</v>
+        <v>1100000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>121333</v>
+        <v>89600</v>
       </c>
       <c r="G17" s="18">
-        <v>8050000</v>
+        <v>11200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,10 +1123,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>89600</v>
+        <v>177333</v>
       </c>
       <c r="G18" s="18">
-        <v>11200000</v>
+        <v>13300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>98280</v>
+        <v>252720</v>
       </c>
       <c r="G19" s="18">
         <v>10530000</v>
@@ -1468,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="24">
-        <v>252720</v>
+        <v>98280</v>
       </c>
       <c r="G33" s="24">
         <v>10530000</v>

--- a/Data/EC/NIT-9013389179.xlsx
+++ b/Data/EC/NIT-9013389179.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB83DB5-2110-4BDC-B2E9-B73A50CF5F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19118BE-377D-4EC3-8387-C91F7CB82489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23494C40-91A7-4BC2-951C-FF5764081262}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7693A131-33D2-4F8C-B4C1-E1880A93325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,49 +92,49 @@
     <t>MIGUEL GONZALEZ</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9315A3EC-E231-A081-3BE2-F0F162AFA3BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB06BBB6-AAB9-55D7-0C63-654609B3E746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8250A53-2B67-42B3-BE5F-2FD28EFEE481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3812EE-C65A-47FA-BC11-4B7BB15F419B}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1080,7 +1080,7 @@
         <v>121333</v>
       </c>
       <c r="G16" s="18">
-        <v>1100000</v>
+        <v>8050000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>252720</v>
+        <v>98280</v>
       </c>
       <c r="G19" s="18">
         <v>10530000</v>
@@ -1468,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="24">
-        <v>98280</v>
+        <v>252720</v>
       </c>
       <c r="G33" s="24">
         <v>10530000</v>

--- a/Data/EC/NIT-9013389179.xlsx
+++ b/Data/EC/NIT-9013389179.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19118BE-377D-4EC3-8387-C91F7CB82489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507A4B7E-C19F-43C9-971E-1904842B46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7693A131-33D2-4F8C-B4C1-E1880A93325B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D59B1541-59C7-40C7-AF34-DCAE4965524B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -248,7 +246,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,29 +442,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,19 +483,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB06BBB6-AAB9-55D7-0C63-654609B3E746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB62CDE-B0E5-B7A5-BD5E-B7C825E412AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3812EE-C65A-47FA-BC11-4B7BB15F419B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212BAC6-D408-4478-A135-CDA99FAF9003}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -922,49 +928,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -972,7 +978,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -988,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9013389179</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>6214866</v>
       </c>
@@ -1073,18 +1079,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>121333</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>8050000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1096,18 +1102,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>89600</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>11200000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1119,18 +1125,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>177333</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>13300000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1142,18 +1148,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>98280</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>10530000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1165,18 +1171,18 @@
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>421200</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>10530000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1188,18 +1194,18 @@
       <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>421200</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>10530000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1211,18 +1217,18 @@
       <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>421200</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>10530000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1234,18 +1240,18 @@
       <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>421200</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>10530000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1257,18 +1263,18 @@
       <c r="D24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>421200</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>10530000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1280,18 +1286,18 @@
       <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>421200</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>10530000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1303,18 +1309,18 @@
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>421200</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>10530000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1326,18 +1332,18 @@
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>421200</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>10530000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1349,18 +1355,18 @@
       <c r="D28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>421200</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>10530000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1372,18 +1378,18 @@
       <c r="D29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>421200</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>10530000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1395,18 +1401,18 @@
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>421200</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>10530000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1418,18 +1424,18 @@
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>421200</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>10530000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1441,47 +1447,47 @@
       <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>421200</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>10530000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="26">
         <v>252720</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="26">
         <v>10530000</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="34"/>
       <c r="H38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1489,10 +1495,10 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="34"/>
       <c r="H39" s="1" t="s">
         <v>43</v>
       </c>
